--- a/_docs/Запрос к auctionru_base.xlsx
+++ b/_docs/Запрос к auctionru_base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Запрос" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1276">
   <si>
     <t>id</t>
   </si>
@@ -3778,9 +3778,6 @@
   </si>
   <si>
     <t>) AS 'parent_category',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  prods.descriptiON AS 'desc',</t>
   </si>
   <si>
     <t xml:space="preserve">  prods.price_plan_id,</t>
@@ -3913,6 +3910,15 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  prods.description AS 'desc',</t>
+  </si>
+  <si>
+    <t>=-- категория предмета</t>
+  </si>
+  <si>
+    <t>=-- id родительской категории</t>
   </si>
 </sst>
 </file>
@@ -4962,15 +4968,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A48" sqref="A1:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5019,9 +5025,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="e">
-        <f>-- id родительской категории</f>
-        <v>#NAME?</v>
+      <c r="D11" s="5" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5035,9 +5040,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" t="e">
-        <f>-- категория предмета</f>
-        <v>#NAME?</v>
+      <c r="F14" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5072,27 +5076,27 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1251</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5102,17 +5106,17 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5122,82 +5126,82 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -5210,7 +5214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -5254,10 +5258,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1273</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>8</v>
